--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value90.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value90.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.038680114670936</v>
+        <v>5.005600929260254</v>
       </c>
       <c r="B1">
-        <v>1.231947191566708</v>
+        <v>3.635507106781006</v>
       </c>
       <c r="C1">
-        <v>1.620434744880589</v>
+        <v>2.743049144744873</v>
       </c>
       <c r="D1">
-        <v>3.869540942212382</v>
+        <v>2.304853677749634</v>
       </c>
       <c r="E1">
-        <v>3.921647569553671</v>
+        <v>2.2149817943573</v>
       </c>
     </row>
   </sheetData>
